--- a/GUI_Sketch.xlsx
+++ b/GUI_Sketch.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="14370" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27800" windowHeight="14380"/>
   </bookViews>
   <sheets>
-    <sheet name="DB" sheetId="2" r:id="rId1"/>
+    <sheet name="DB_SCHEMA" sheetId="2" r:id="rId1"/>
     <sheet name="GUI" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
   <si>
     <t>EMPLID</t>
   </si>
@@ -32,9 +37,6 @@
     <t>L. Name</t>
   </si>
   <si>
-    <t>Topics</t>
-  </si>
-  <si>
     <t>Submit</t>
   </si>
   <si>
@@ -47,24 +49,12 @@
     <t>string</t>
   </si>
   <si>
-    <t>integer</t>
-  </si>
-  <si>
     <t>document</t>
   </si>
   <si>
     <t>. . . . .</t>
   </si>
   <si>
-    <t xml:space="preserve">Cl. Code: </t>
-  </si>
-  <si>
-    <t>Time In</t>
-  </si>
-  <si>
-    <t>Log</t>
-  </si>
-  <si>
     <t>Log Document</t>
   </si>
   <si>
@@ -77,15 +67,9 @@
     <t>timestamp</t>
   </si>
   <si>
-    <t>Time Out</t>
-  </si>
-  <si>
     <t>L. of L.</t>
   </si>
   <si>
-    <t>integer [0-4]</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -201,13 +185,46 @@
   </si>
   <si>
     <t>[1,2,3,4]</t>
+  </si>
+  <si>
+    <t>character [1,2,3,4]</t>
+  </si>
+  <si>
+    <t>CLASSES</t>
+  </si>
+  <si>
+    <t>LOG</t>
+  </si>
+  <si>
+    <t>LASTNAME</t>
+  </si>
+  <si>
+    <t>FIRSTNAME</t>
+  </si>
+  <si>
+    <t>YEARINSCHOOL</t>
+  </si>
+  <si>
+    <t>time_in</t>
+  </si>
+  <si>
+    <t>TIMEOUT</t>
+  </si>
+  <si>
+    <t>TOPICSDISCUSSED</t>
+  </si>
+  <si>
+    <t>LEVELOFLEARNING</t>
+  </si>
+  <si>
+    <t>TUTOR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +264,22 @@
     <font>
       <i/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -318,23 +351,23 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -342,14 +375,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -357,49 +390,49 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -407,29 +440,29 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -439,7 +472,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -447,12 +480,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,44 +494,44 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,10 +539,10 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,17 +551,17 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -536,17 +569,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -555,115 +588,121 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -686,215 +725,208 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1194,40 +1226,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:V15"/>
+  <dimension ref="B2:V16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="2" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:22" ht="15" thickBot="1">
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
-      <c r="J3" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="39"/>
-    </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22" ht="15" thickBot="1">
+      <c r="B3" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
+      <c r="J3" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="51"/>
+    </row>
+    <row r="4" spans="2:22">
       <c r="B4" s="3"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1237,93 +1269,93 @@
       <c r="H4" s="4"/>
       <c r="J4" s="3"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="49" t="s">
+      <c r="L4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22">
       <c r="B5" s="3"/>
       <c r="C5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="31"/>
+      <c r="D5" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
       <c r="H5" s="4"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="30"/>
-      <c r="N5" s="31"/>
+      <c r="K5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="33"/>
+      <c r="N5" s="34"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22">
       <c r="B6" s="3"/>
       <c r="C6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31"/>
+        <v>59</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34"/>
       <c r="H6" s="4"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="30"/>
-      <c r="N6" s="31"/>
+      <c r="K6" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="33"/>
+      <c r="N6" s="34"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:22">
       <c r="B7" s="3"/>
       <c r="C7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31"/>
+        <v>58</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="34"/>
       <c r="H7" s="4"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" s="30"/>
-      <c r="N7" s="31"/>
+      <c r="K7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="33"/>
+      <c r="N7" s="34"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:22" ht="15" thickBot="1">
       <c r="B8" s="3"/>
-      <c r="C8" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
+      <c r="C8" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="4"/>
       <c r="J8" s="5"/>
       <c r="K8" s="6"/>
@@ -1332,55 +1364,59 @@
       <c r="N8" s="6"/>
       <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:22" ht="15" thickBot="1">
       <c r="B9" s="3"/>
       <c r="C9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="28"/>
+        <v>56</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22">
       <c r="B10" s="3"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31"/>
+      <c r="C10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="42"/>
       <c r="H10" s="4"/>
       <c r="J10" s="46" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K10" s="47"/>
       <c r="L10" s="47"/>
       <c r="M10" s="47"/>
       <c r="N10" s="47"/>
       <c r="O10" s="48"/>
-      <c r="Q10" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="36"/>
-    </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="4"/>
+      <c r="Q10" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="54"/>
+    </row>
+    <row r="11" spans="2:22" ht="15" thickBot="1">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="18" t="s">
-        <v>19</v>
+      <c r="K11" s="87" t="s">
+        <v>61</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -1393,117 +1429,102 @@
       <c r="U11" s="1"/>
       <c r="V11" s="4"/>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="4"/>
+    <row r="12" spans="2:22">
       <c r="J12" s="3"/>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="L12" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="M12" s="44"/>
-      <c r="N12" s="45"/>
+      <c r="L12" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="85"/>
+      <c r="N12" s="85"/>
       <c r="O12" s="4"/>
       <c r="Q12" s="3"/>
-      <c r="R12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="S12" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="T12" s="30"/>
-      <c r="U12" s="31"/>
+      <c r="R12" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="S12" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="T12" s="33"/>
+      <c r="U12" s="34"/>
       <c r="V12" s="4"/>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="4"/>
+    <row r="13" spans="2:22">
       <c r="J13" s="3"/>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="44"/>
-      <c r="N13" s="45"/>
+      <c r="L13" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="85"/>
+      <c r="N13" s="85"/>
       <c r="O13" s="4"/>
       <c r="Q13" s="3"/>
-      <c r="R13" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="S13" s="29" t="s">
+      <c r="R13" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="S13" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="T13" s="33"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="4"/>
+    </row>
+    <row r="14" spans="2:22">
+      <c r="J14" s="3"/>
+      <c r="K14" s="84" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="T13" s="30"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="4"/>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="4"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="M14" s="41"/>
-      <c r="N14" s="42"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
       <c r="O14" s="4"/>
       <c r="Q14" s="3"/>
-      <c r="R14" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="S14" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="T14" s="30"/>
-      <c r="U14" s="31"/>
+      <c r="R14" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="S14" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="T14" s="33"/>
+      <c r="U14" s="34"/>
       <c r="V14" s="4"/>
     </row>
-    <row r="15" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="7"/>
+    <row r="15" spans="2:22" ht="15" thickBot="1">
       <c r="J15" s="5"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="7"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="7"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="S15" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="4"/>
+    </row>
+    <row r="16" spans="2:22" ht="15" thickBot="1">
+      <c r="Q16" s="5"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
     <mergeCell ref="D8:G8"/>
+    <mergeCell ref="S15:U15"/>
     <mergeCell ref="D9:G9"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="B3:H3"/>
@@ -1525,7 +1546,12 @@
     <mergeCell ref="L6:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1533,39 +1559,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="3" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B4" s="20" t="s">
+    <row r="3" spans="2:21" ht="15" thickBot="1"/>
+    <row r="4" spans="2:21">
+      <c r="B4" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="45"/>
+      <c r="K4" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="22"/>
-      <c r="K4" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="22"/>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="45"/>
+    </row>
+    <row r="5" spans="2:21">
       <c r="B5" s="3"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1586,86 +1612,86 @@
       <c r="T5" s="1"/>
       <c r="U5" s="4"/>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21">
       <c r="B6" s="3"/>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
       <c r="I6" s="4"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="52"/>
+      <c r="L6" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="59"/>
       <c r="U6" s="4"/>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21">
       <c r="B7" s="3"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
       <c r="I7" s="4"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="57"/>
+      <c r="L7" s="18"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="79"/>
+      <c r="P7" s="26"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="58"/>
+      <c r="T7" s="19"/>
       <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21">
       <c r="B8" s="3"/>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
       <c r="I8" s="4"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="33" t="s">
+      <c r="L8" s="18"/>
+      <c r="M8" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="56"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="N8" s="33"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="79"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="S8" s="33"/>
-      <c r="T8" s="58"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="19"/>
       <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21">
       <c r="B9" s="3"/>
-      <c r="C9" s="56"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1673,211 +1699,211 @@
       <c r="H9" s="2"/>
       <c r="I9" s="4"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="79"/>
+      <c r="P9" s="26"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="S9" s="74"/>
-      <c r="T9" s="58"/>
+      <c r="R9" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="S9" s="70"/>
+      <c r="T9" s="19"/>
       <c r="U9" s="4"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21">
       <c r="B10" s="3"/>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="54" t="s">
-        <v>25</v>
+      <c r="D10" s="56"/>
+      <c r="E10" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="F10" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
       <c r="I10" s="4"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="57"/>
+      <c r="L10" s="18"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="79"/>
+      <c r="P10" s="26"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="S10" s="75"/>
-      <c r="T10" s="58"/>
+      <c r="R10" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="S10" s="68"/>
+      <c r="T10" s="19"/>
       <c r="U10" s="4"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21">
       <c r="B11" s="3"/>
-      <c r="C11" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="32"/>
+      <c r="C11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="36"/>
       <c r="E11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
+        <v>17</v>
+      </c>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
       <c r="I11" s="4"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="57"/>
+      <c r="L11" s="18"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="82" t="s">
-        <v>6</v>
+      <c r="N11" s="27" t="s">
+        <v>5</v>
       </c>
       <c r="O11" s="1"/>
-      <c r="P11" s="79"/>
+      <c r="P11" s="26"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="S11" s="75"/>
-      <c r="T11" s="58"/>
+      <c r="R11" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="S11" s="68"/>
+      <c r="T11" s="19"/>
       <c r="U11" s="4"/>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21">
       <c r="B12" s="3"/>
-      <c r="C12" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="32"/>
+      <c r="C12" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="36"/>
       <c r="E12" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
+        <v>17</v>
+      </c>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
       <c r="I12" s="4"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="57"/>
+      <c r="L12" s="18"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="79"/>
+      <c r="P12" s="26"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="S12" s="81"/>
-      <c r="T12" s="58"/>
+      <c r="R12" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="S12" s="72"/>
+      <c r="T12" s="19"/>
       <c r="U12" s="4"/>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21">
       <c r="B13" s="3"/>
-      <c r="C13" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="32"/>
+      <c r="C13" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="36"/>
       <c r="E13" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
+        <v>17</v>
+      </c>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
       <c r="I13" s="4"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="57"/>
+      <c r="L13" s="18"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="79"/>
+      <c r="P13" s="26"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="S13" s="75"/>
-      <c r="T13" s="58"/>
+      <c r="R13" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="S13" s="68"/>
+      <c r="T13" s="19"/>
       <c r="U13" s="4"/>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21">
       <c r="B14" s="3"/>
-      <c r="C14" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="32"/>
+      <c r="C14" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="36"/>
       <c r="E14" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
+        <v>17</v>
+      </c>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
       <c r="I14" s="4"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="57"/>
+      <c r="L14" s="18"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="79"/>
+      <c r="P14" s="26"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="S14" s="75"/>
-      <c r="T14" s="58"/>
+      <c r="R14" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="S14" s="68"/>
+      <c r="T14" s="19"/>
       <c r="U14" s="4"/>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21">
       <c r="B15" s="3"/>
-      <c r="C15" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="32"/>
+      <c r="C15" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="36"/>
       <c r="E15" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
+        <v>17</v>
+      </c>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
       <c r="I15" s="4"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="57"/>
+      <c r="L15" s="18"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="79"/>
+      <c r="P15" s="26"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="76" t="s">
-        <v>56</v>
-      </c>
-      <c r="S15" s="77"/>
-      <c r="T15" s="58"/>
+      <c r="R15" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="S15" s="74"/>
+      <c r="T15" s="19"/>
       <c r="U15" s="4"/>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:21">
       <c r="B16" s="3"/>
-      <c r="C16" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="32"/>
+      <c r="C16" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="36"/>
       <c r="E16" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
+        <v>17</v>
+      </c>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
       <c r="I16" s="4"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="57"/>
+      <c r="L16" s="18"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-      <c r="P16" s="79"/>
+      <c r="P16" s="26"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
-      <c r="T16" s="58"/>
+      <c r="T16" s="19"/>
       <c r="U16" s="4"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21">
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1887,30 +1913,30 @@
       <c r="H17" s="1"/>
       <c r="I17" s="4"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="60"/>
-      <c r="P17" s="79"/>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="60"/>
-      <c r="S17" s="86" t="s">
-        <v>35</v>
-      </c>
-      <c r="T17" s="86"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="T17" s="75"/>
       <c r="U17" s="4"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21">
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="83" t="s">
+      <c r="G18" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28" t="s">
         <v>6</v>
-      </c>
-      <c r="H18" s="83" t="s">
-        <v>7</v>
       </c>
       <c r="I18" s="4"/>
       <c r="K18" s="3"/>
@@ -1925,7 +1951,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="4"/>
     </row>
-    <row r="19" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:21" ht="15" thickBot="1">
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -1946,153 +1972,153 @@
       <c r="T19" s="6"/>
       <c r="U19" s="7"/>
     </row>
-    <row r="20" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="L21" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="64"/>
-      <c r="Q21" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="R21" s="63"/>
-      <c r="S21" s="63"/>
-      <c r="T21" s="64"/>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C22" s="87" t="s">
-        <v>57</v>
+    <row r="20" spans="2:21" ht="15" thickBot="1"/>
+    <row r="21" spans="2:21">
+      <c r="L21" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="62"/>
+      <c r="Q21" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="R21" s="61"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="62"/>
+    </row>
+    <row r="22" spans="2:21">
+      <c r="C22" s="31" t="s">
+        <v>50</v>
       </c>
       <c r="L22" s="3"/>
-      <c r="M22" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="N22" s="71"/>
-      <c r="O22" s="72"/>
+      <c r="M22" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="N22" s="65"/>
+      <c r="O22" s="66"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="4"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C23" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="90"/>
-      <c r="L23" s="65" t="s">
+    <row r="23" spans="2:21">
+      <c r="C23" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="76"/>
+      <c r="L23" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="M23" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="N23" s="68"/>
-      <c r="O23" s="69"/>
-      <c r="Q23" s="65" t="s">
+      <c r="M23" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="N23" s="63"/>
+      <c r="O23" s="64"/>
+      <c r="Q23" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="R23" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="S23" s="68"/>
-      <c r="T23" s="69"/>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C24" s="91" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="91"/>
-      <c r="L24" s="65" t="s">
+      <c r="R23" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="S23" s="63"/>
+      <c r="T23" s="64"/>
+    </row>
+    <row r="24" spans="2:21">
+      <c r="C24" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="77"/>
+      <c r="L24" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="N24" s="68"/>
-      <c r="O24" s="69"/>
-      <c r="Q24" s="65" t="s">
+      <c r="M24" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="N24" s="63"/>
+      <c r="O24" s="64"/>
+      <c r="Q24" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="R24" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="S24" s="68"/>
-      <c r="T24" s="69"/>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C25" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="92"/>
-      <c r="L25" s="65" t="s">
+      <c r="R24" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="S24" s="63"/>
+      <c r="T24" s="64"/>
+    </row>
+    <row r="25" spans="2:21">
+      <c r="C25" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="78"/>
+      <c r="L25" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="M25" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="N25" s="68"/>
-      <c r="O25" s="69"/>
-      <c r="Q25" s="65" t="s">
+      <c r="M25" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="N25" s="63"/>
+      <c r="O25" s="64"/>
+      <c r="Q25" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="R25" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="S25" s="68"/>
-      <c r="T25" s="69"/>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="L26" s="65" t="s">
+      <c r="R25" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="S25" s="63"/>
+      <c r="T25" s="64"/>
+    </row>
+    <row r="26" spans="2:21">
+      <c r="L26" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="M26" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="N26" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="O26" s="69"/>
-      <c r="Q26" s="67"/>
+      <c r="M26" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="N26" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="O26" s="64"/>
+      <c r="Q26" s="23"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="8"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21">
       <c r="L27" s="3"/>
-      <c r="M27" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="N27" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="O27" s="69"/>
-      <c r="Q27" s="65" t="s">
-        <v>44</v>
-      </c>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="66"/>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="M27" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="N27" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="O27" s="64"/>
+      <c r="Q27" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="79"/>
+    </row>
+    <row r="28" spans="2:21">
       <c r="L28" s="3"/>
-      <c r="M28" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="N28" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="O28" s="69"/>
-      <c r="Q28" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="R28" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="S28" s="88"/>
-      <c r="T28" s="89"/>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="M28" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="N28" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="O28" s="64"/>
+      <c r="Q28" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="R28" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="S28" s="80"/>
+      <c r="T28" s="81"/>
+    </row>
+    <row r="29" spans="2:21">
       <c r="L29" s="3"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -2102,38 +2128,29 @@
       <c r="S29" s="1"/>
       <c r="T29" s="4"/>
     </row>
-    <row r="30" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:21" ht="15" thickBot="1">
       <c r="L30" s="5"/>
       <c r="M30" s="6"/>
-      <c r="N30" s="84" t="s">
+      <c r="N30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="O30" s="30" t="s">
         <v>6</v>
-      </c>
-      <c r="O30" s="85" t="s">
-        <v>7</v>
       </c>
       <c r="Q30" s="5"/>
       <c r="R30" s="6"/>
-      <c r="S30" s="84" t="s">
+      <c r="S30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="T30" s="30" t="s">
         <v>6</v>
-      </c>
-      <c r="T30" s="85" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="S17:T17"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="M22:O22"/>
     <mergeCell ref="R27:T27"/>
     <mergeCell ref="R28:T28"/>
     <mergeCell ref="M25:O25"/>
@@ -2145,11 +2162,20 @@
     <mergeCell ref="R23:T23"/>
     <mergeCell ref="R24:T24"/>
     <mergeCell ref="R25:T25"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="S17:T17"/>
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="L21:O21"/>
     <mergeCell ref="M23:O23"/>
     <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M22:O22"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
@@ -2173,6 +2199,10 @@
     <mergeCell ref="C12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/GUI_Sketch.xlsx
+++ b/GUI_Sketch.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27800" windowHeight="14380"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16260"/>
   </bookViews>
   <sheets>
     <sheet name="DB_SCHEMA" sheetId="2" r:id="rId1"/>
@@ -751,156 +751,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -910,13 +760,163 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1229,7 +1229,7 @@
   <dimension ref="B2:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1241,23 +1241,23 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="2:22" ht="15" thickBot="1">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
-      <c r="J3" s="49" t="s">
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
+      <c r="J3" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="51"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="55"/>
     </row>
     <row r="4" spans="2:22">
       <c r="B4" s="3"/>
@@ -1269,11 +1269,11 @@
       <c r="H4" s="4"/>
       <c r="J4" s="3"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="35" t="s">
+      <c r="L4" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
       <c r="O4" s="4"/>
     </row>
     <row r="5" spans="2:22">
@@ -1281,22 +1281,22 @@
       <c r="C5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="34"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="38"/>
       <c r="H5" s="4"/>
       <c r="J5" s="3"/>
       <c r="K5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="32" t="s">
+      <c r="L5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="33"/>
-      <c r="N5" s="34"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="38"/>
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="2:22">
@@ -1304,22 +1304,22 @@
       <c r="C6" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="38"/>
       <c r="H6" s="4"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="83" t="s">
+      <c r="K6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="32" t="s">
+      <c r="L6" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="33"/>
-      <c r="N6" s="34"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="38"/>
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="2:22">
@@ -1327,35 +1327,35 @@
       <c r="C7" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="34"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="38"/>
       <c r="H7" s="4"/>
       <c r="J7" s="3"/>
       <c r="K7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="L7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="33"/>
-      <c r="N7" s="34"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="38"/>
       <c r="O7" s="4"/>
     </row>
     <row r="8" spans="2:22" ht="15" thickBot="1">
       <c r="B8" s="3"/>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="38"/>
       <c r="H8" s="4"/>
       <c r="J8" s="5"/>
       <c r="K8" s="6"/>
@@ -1369,12 +1369,12 @@
       <c r="C9" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="42"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="2:22">
@@ -1382,29 +1382,29 @@
       <c r="C10" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="45"/>
       <c r="H10" s="4"/>
-      <c r="J10" s="46" t="s">
+      <c r="J10" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="48"/>
-      <c r="Q10" s="52" t="s">
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="51"/>
+      <c r="Q10" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="54"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="58"/>
     </row>
     <row r="11" spans="2:22" ht="15" thickBot="1">
       <c r="B11" s="5"/>
@@ -1415,7 +1415,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="87" t="s">
+      <c r="K11" s="35" t="s">
         <v>61</v>
       </c>
       <c r="L11" s="1"/>
@@ -1431,68 +1431,68 @@
     </row>
     <row r="12" spans="2:22">
       <c r="J12" s="3"/>
-      <c r="K12" s="84" t="s">
+      <c r="K12" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="L12" s="85" t="s">
+      <c r="L12" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="85"/>
-      <c r="N12" s="85"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
       <c r="O12" s="4"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="S12" s="32" t="s">
+      <c r="S12" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="T12" s="33"/>
-      <c r="U12" s="34"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="38"/>
       <c r="V12" s="4"/>
     </row>
     <row r="13" spans="2:22">
       <c r="J13" s="3"/>
-      <c r="K13" s="84" t="s">
+      <c r="K13" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="85" t="s">
+      <c r="L13" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="85"/>
-      <c r="N13" s="85"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
       <c r="O13" s="4"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="S13" s="32" t="s">
+      <c r="S13" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="T13" s="33"/>
-      <c r="U13" s="34"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="38"/>
       <c r="V13" s="4"/>
     </row>
     <row r="14" spans="2:22">
       <c r="J14" s="3"/>
-      <c r="K14" s="84" t="s">
+      <c r="K14" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="L14" s="86" t="s">
+      <c r="L14" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="86"/>
-      <c r="N14" s="86"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
       <c r="O14" s="4"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="S14" s="32" t="s">
+      <c r="S14" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="T14" s="33"/>
-      <c r="U14" s="34"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="38"/>
       <c r="V14" s="4"/>
     </row>
     <row r="15" spans="2:22" ht="15" thickBot="1">
@@ -1506,11 +1506,11 @@
       <c r="R15" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="S15" s="36" t="s">
+      <c r="S15" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
       <c r="V15" s="4"/>
     </row>
     <row r="16" spans="2:22" ht="15" thickBot="1">
@@ -1523,6 +1523,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L6:N6"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="S15:U15"/>
     <mergeCell ref="D9:G9"/>
@@ -1539,11 +1544,6 @@
     <mergeCell ref="L13:N13"/>
     <mergeCell ref="L14:N14"/>
     <mergeCell ref="S12:U12"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L6:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1560,36 +1560,36 @@
   <dimension ref="B3:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="3" spans="2:21" ht="15" thickBot="1"/>
     <row r="4" spans="2:21">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="45"/>
-      <c r="K4" s="43" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="48"/>
+      <c r="K4" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="45"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="48"/>
     </row>
     <row r="5" spans="2:21">
       <c r="B5" s="3"/>
@@ -1617,26 +1617,26 @@
       <c r="C6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
       <c r="I6" s="4"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="57" t="s">
+      <c r="L6" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
       <c r="P6" s="25"/>
-      <c r="Q6" s="58" t="s">
+      <c r="Q6" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="R6" s="58"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="59"/>
+      <c r="R6" s="85"/>
+      <c r="S6" s="85"/>
+      <c r="T6" s="86"/>
       <c r="U6" s="4"/>
     </row>
     <row r="7" spans="2:21">
@@ -1644,11 +1644,11 @@
       <c r="C7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
       <c r="I7" s="4"/>
       <c r="K7" s="3"/>
       <c r="L7" s="18"/>
@@ -1667,25 +1667,25 @@
       <c r="C8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
       <c r="I8" s="4"/>
       <c r="K8" s="3"/>
       <c r="L8" s="18"/>
-      <c r="M8" s="56" t="s">
+      <c r="M8" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="N8" s="56"/>
+      <c r="N8" s="69"/>
       <c r="O8" s="1"/>
       <c r="P8" s="26"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="56" t="s">
+      <c r="R8" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="S8" s="56"/>
+      <c r="S8" s="69"/>
       <c r="T8" s="19"/>
       <c r="U8" s="4"/>
     </row>
@@ -1700,32 +1700,32 @@
       <c r="I9" s="4"/>
       <c r="K9" s="3"/>
       <c r="L9" s="18"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
       <c r="O9" s="1"/>
       <c r="P9" s="26"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="69" t="s">
+      <c r="R9" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="S9" s="70"/>
+      <c r="S9" s="76"/>
       <c r="T9" s="19"/>
       <c r="U9" s="4"/>
     </row>
     <row r="10" spans="2:21">
       <c r="B10" s="3"/>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="56"/>
+      <c r="D10" s="69"/>
       <c r="E10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
       <c r="I10" s="4"/>
       <c r="K10" s="3"/>
       <c r="L10" s="18"/>
@@ -1734,25 +1734,25 @@
       <c r="O10" s="1"/>
       <c r="P10" s="26"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="67" t="s">
+      <c r="R10" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="68"/>
+      <c r="S10" s="74"/>
       <c r="T10" s="19"/>
       <c r="U10" s="4"/>
     </row>
     <row r="11" spans="2:21">
       <c r="B11" s="3"/>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="36"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
       <c r="I11" s="4"/>
       <c r="K11" s="3"/>
       <c r="L11" s="18"/>
@@ -1763,25 +1763,25 @@
       <c r="O11" s="1"/>
       <c r="P11" s="26"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="67" t="s">
+      <c r="R11" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="S11" s="68"/>
+      <c r="S11" s="74"/>
       <c r="T11" s="19"/>
       <c r="U11" s="4"/>
     </row>
     <row r="12" spans="2:21">
       <c r="B12" s="3"/>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="36"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
       <c r="I12" s="4"/>
       <c r="K12" s="3"/>
       <c r="L12" s="18"/>
@@ -1790,25 +1790,25 @@
       <c r="O12" s="1"/>
       <c r="P12" s="26"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="71" t="s">
+      <c r="R12" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="S12" s="72"/>
+      <c r="S12" s="78"/>
       <c r="T12" s="19"/>
       <c r="U12" s="4"/>
     </row>
     <row r="13" spans="2:21">
       <c r="B13" s="3"/>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="36"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
       <c r="I13" s="4"/>
       <c r="K13" s="3"/>
       <c r="L13" s="18"/>
@@ -1817,25 +1817,25 @@
       <c r="O13" s="1"/>
       <c r="P13" s="26"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="67" t="s">
+      <c r="R13" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="S13" s="68"/>
+      <c r="S13" s="74"/>
       <c r="T13" s="19"/>
       <c r="U13" s="4"/>
     </row>
     <row r="14" spans="2:21">
       <c r="B14" s="3"/>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="36"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
       <c r="I14" s="4"/>
       <c r="K14" s="3"/>
       <c r="L14" s="18"/>
@@ -1844,25 +1844,25 @@
       <c r="O14" s="1"/>
       <c r="P14" s="26"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="67" t="s">
+      <c r="R14" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="S14" s="68"/>
+      <c r="S14" s="74"/>
       <c r="T14" s="19"/>
       <c r="U14" s="4"/>
     </row>
     <row r="15" spans="2:21">
       <c r="B15" s="3"/>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="36"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
       <c r="I15" s="4"/>
       <c r="K15" s="3"/>
       <c r="L15" s="18"/>
@@ -1871,25 +1871,25 @@
       <c r="O15" s="1"/>
       <c r="P15" s="26"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="73" t="s">
+      <c r="R15" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="S15" s="74"/>
+      <c r="S15" s="80"/>
       <c r="T15" s="19"/>
       <c r="U15" s="4"/>
     </row>
     <row r="16" spans="2:21">
       <c r="B16" s="3"/>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="36"/>
+      <c r="D16" s="39"/>
       <c r="E16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
       <c r="I16" s="4"/>
       <c r="K16" s="3"/>
       <c r="L16" s="18"/>
@@ -1920,10 +1920,10 @@
       <c r="P17" s="26"/>
       <c r="Q17" s="21"/>
       <c r="R17" s="21"/>
-      <c r="S17" s="75" t="s">
+      <c r="S17" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="T17" s="75"/>
+      <c r="T17" s="81"/>
       <c r="U17" s="4"/>
     </row>
     <row r="18" spans="2:21">
@@ -1974,99 +1974,99 @@
     </row>
     <row r="20" spans="2:21" ht="15" thickBot="1"/>
     <row r="21" spans="2:21">
-      <c r="L21" s="60" t="s">
+      <c r="L21" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="62"/>
-      <c r="Q21" s="60" t="s">
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="72"/>
+      <c r="Q21" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="R21" s="61"/>
-      <c r="S21" s="61"/>
-      <c r="T21" s="62"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="71"/>
+      <c r="T21" s="72"/>
     </row>
     <row r="22" spans="2:21">
       <c r="C22" s="31" t="s">
         <v>50</v>
       </c>
       <c r="L22" s="3"/>
-      <c r="M22" s="65" t="s">
+      <c r="M22" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="N22" s="65"/>
-      <c r="O22" s="66"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="83"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="4"/>
     </row>
     <row r="23" spans="2:21">
-      <c r="C23" s="76" t="s">
+      <c r="C23" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="76"/>
+      <c r="D23" s="61"/>
       <c r="L23" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="M23" s="63" t="s">
+      <c r="M23" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="N23" s="63"/>
-      <c r="O23" s="64"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="68"/>
       <c r="Q23" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="R23" s="63" t="s">
+      <c r="R23" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="S23" s="63"/>
-      <c r="T23" s="64"/>
+      <c r="S23" s="67"/>
+      <c r="T23" s="68"/>
     </row>
     <row r="24" spans="2:21">
-      <c r="C24" s="77" t="s">
+      <c r="C24" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="77"/>
+      <c r="D24" s="62"/>
       <c r="L24" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="63" t="s">
+      <c r="M24" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="N24" s="63"/>
-      <c r="O24" s="64"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="68"/>
       <c r="Q24" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="R24" s="63" t="s">
+      <c r="R24" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="S24" s="63"/>
-      <c r="T24" s="64"/>
+      <c r="S24" s="67"/>
+      <c r="T24" s="68"/>
     </row>
     <row r="25" spans="2:21">
-      <c r="C25" s="78" t="s">
+      <c r="C25" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="78"/>
+      <c r="D25" s="63"/>
       <c r="L25" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="M25" s="63" t="s">
+      <c r="M25" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="N25" s="63"/>
-      <c r="O25" s="64"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="68"/>
       <c r="Q25" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="R25" s="63" t="s">
+      <c r="R25" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="S25" s="63"/>
-      <c r="T25" s="64"/>
+      <c r="S25" s="67"/>
+      <c r="T25" s="68"/>
     </row>
     <row r="26" spans="2:21">
       <c r="L26" s="22" t="s">
@@ -2075,10 +2075,10 @@
       <c r="M26" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="N26" s="63" t="s">
+      <c r="N26" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="O26" s="64"/>
+      <c r="O26" s="68"/>
       <c r="Q26" s="23"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
@@ -2089,34 +2089,34 @@
       <c r="M27" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="N27" s="63" t="s">
+      <c r="N27" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="O27" s="64"/>
+      <c r="O27" s="68"/>
       <c r="Q27" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="79"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="64"/>
     </row>
     <row r="28" spans="2:21">
       <c r="L28" s="3"/>
       <c r="M28" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="N28" s="63" t="s">
+      <c r="N28" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="O28" s="64"/>
+      <c r="O28" s="68"/>
       <c r="Q28" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="R28" s="80" t="s">
+      <c r="R28" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="S28" s="80"/>
-      <c r="T28" s="81"/>
+      <c r="S28" s="65"/>
+      <c r="T28" s="66"/>
     </row>
     <row r="29" spans="2:21">
       <c r="L29" s="3"/>
@@ -2148,34 +2148,11 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
@@ -2192,11 +2169,34 @@
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="D8:H8"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/GUI_Sketch.xlsx
+++ b/GUI_Sketch.xlsx
@@ -772,6 +772,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -835,7 +838,67 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -854,69 +917,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1229,7 +1229,7 @@
   <dimension ref="B2:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1241,23 +1241,23 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="2:22" ht="15" thickBot="1">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
-      <c r="J3" s="53" t="s">
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="49"/>
+      <c r="J3" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="56"/>
     </row>
     <row r="4" spans="2:22">
       <c r="B4" s="3"/>
@@ -1269,11 +1269,11 @@
       <c r="H4" s="4"/>
       <c r="J4" s="3"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="60" t="s">
+      <c r="L4" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
       <c r="O4" s="4"/>
     </row>
     <row r="5" spans="2:22">
@@ -1369,12 +1369,12 @@
       <c r="C9" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="2:22">
@@ -1382,29 +1382,29 @@
       <c r="C10" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="46"/>
       <c r="H10" s="4"/>
-      <c r="J10" s="49" t="s">
+      <c r="J10" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="51"/>
-      <c r="Q10" s="56" t="s">
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="52"/>
+      <c r="Q10" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="59"/>
     </row>
     <row r="11" spans="2:22" ht="15" thickBot="1">
       <c r="B11" s="5"/>
@@ -1434,11 +1434,11 @@
       <c r="K12" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="L12" s="52" t="s">
+      <c r="L12" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
       <c r="O12" s="4"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="13" t="s">
@@ -1456,11 +1456,11 @@
       <c r="K13" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="52" t="s">
+      <c r="L13" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
       <c r="O13" s="4"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="13" t="s">
@@ -1478,11 +1478,11 @@
       <c r="K14" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="L14" s="59" t="s">
+      <c r="L14" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
       <c r="O14" s="4"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="14" t="s">
@@ -1506,11 +1506,11 @@
       <c r="R15" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="S15" s="39" t="s">
+      <c r="S15" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
       <c r="V15" s="4"/>
     </row>
     <row r="16" spans="2:22" ht="15" thickBot="1">
@@ -1523,11 +1523,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L6:N6"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="S15:U15"/>
     <mergeCell ref="D9:G9"/>
@@ -1544,6 +1539,11 @@
     <mergeCell ref="L13:N13"/>
     <mergeCell ref="L14:N14"/>
     <mergeCell ref="S12:U12"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L6:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1567,29 +1567,29 @@
   <sheetData>
     <row r="3" spans="2:21" ht="15" thickBot="1"/>
     <row r="4" spans="2:21">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="48"/>
-      <c r="K4" s="46" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="49"/>
+      <c r="K4" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="49"/>
     </row>
     <row r="5" spans="2:21">
       <c r="B5" s="3"/>
@@ -1617,26 +1617,26 @@
       <c r="C6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="4"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="84" t="s">
+      <c r="L6" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="85"/>
-      <c r="N6" s="85"/>
-      <c r="O6" s="85"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
       <c r="P6" s="25"/>
-      <c r="Q6" s="85" t="s">
+      <c r="Q6" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="R6" s="85"/>
-      <c r="S6" s="85"/>
-      <c r="T6" s="86"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="65"/>
       <c r="U6" s="4"/>
     </row>
     <row r="7" spans="2:21">
@@ -1644,11 +1644,11 @@
       <c r="C7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
       <c r="I7" s="4"/>
       <c r="K7" s="3"/>
       <c r="L7" s="18"/>
@@ -1667,25 +1667,25 @@
       <c r="C8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
       <c r="I8" s="4"/>
       <c r="K8" s="3"/>
       <c r="L8" s="18"/>
-      <c r="M8" s="69" t="s">
+      <c r="M8" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="N8" s="69"/>
+      <c r="N8" s="62"/>
       <c r="O8" s="1"/>
       <c r="P8" s="26"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="69" t="s">
+      <c r="R8" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="S8" s="69"/>
+      <c r="S8" s="62"/>
       <c r="T8" s="19"/>
       <c r="U8" s="4"/>
     </row>
@@ -1700,8 +1700,8 @@
       <c r="I9" s="4"/>
       <c r="K9" s="3"/>
       <c r="L9" s="18"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
       <c r="O9" s="1"/>
       <c r="P9" s="26"/>
       <c r="Q9" s="1"/>
@@ -1714,18 +1714,18 @@
     </row>
     <row r="10" spans="2:21">
       <c r="B10" s="3"/>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="69"/>
+      <c r="D10" s="62"/>
       <c r="E10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="87" t="s">
+      <c r="F10" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
       <c r="I10" s="4"/>
       <c r="K10" s="3"/>
       <c r="L10" s="18"/>
@@ -1743,16 +1743,16 @@
     </row>
     <row r="11" spans="2:21">
       <c r="B11" s="3"/>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="39"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
       <c r="I11" s="4"/>
       <c r="K11" s="3"/>
       <c r="L11" s="18"/>
@@ -1772,16 +1772,16 @@
     </row>
     <row r="12" spans="2:21">
       <c r="B12" s="3"/>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="39"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
       <c r="I12" s="4"/>
       <c r="K12" s="3"/>
       <c r="L12" s="18"/>
@@ -1799,16 +1799,16 @@
     </row>
     <row r="13" spans="2:21">
       <c r="B13" s="3"/>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="39"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
       <c r="I13" s="4"/>
       <c r="K13" s="3"/>
       <c r="L13" s="18"/>
@@ -1826,16 +1826,16 @@
     </row>
     <row r="14" spans="2:21">
       <c r="B14" s="3"/>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="39"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
       <c r="I14" s="4"/>
       <c r="K14" s="3"/>
       <c r="L14" s="18"/>
@@ -1853,16 +1853,16 @@
     </row>
     <row r="15" spans="2:21">
       <c r="B15" s="3"/>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
       <c r="I15" s="4"/>
       <c r="K15" s="3"/>
       <c r="L15" s="18"/>
@@ -1880,16 +1880,16 @@
     </row>
     <row r="16" spans="2:21">
       <c r="B16" s="3"/>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="39"/>
+      <c r="D16" s="40"/>
       <c r="E16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
       <c r="I16" s="4"/>
       <c r="K16" s="3"/>
       <c r="L16" s="18"/>
@@ -1974,99 +1974,99 @@
     </row>
     <row r="20" spans="2:21" ht="15" thickBot="1"/>
     <row r="21" spans="2:21">
-      <c r="L21" s="70" t="s">
+      <c r="L21" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="72"/>
-      <c r="Q21" s="70" t="s">
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="68"/>
+      <c r="Q21" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="R21" s="71"/>
-      <c r="S21" s="71"/>
-      <c r="T21" s="72"/>
+      <c r="R21" s="67"/>
+      <c r="S21" s="67"/>
+      <c r="T21" s="68"/>
     </row>
     <row r="22" spans="2:21">
       <c r="C22" s="31" t="s">
         <v>50</v>
       </c>
       <c r="L22" s="3"/>
-      <c r="M22" s="82" t="s">
+      <c r="M22" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="N22" s="82"/>
-      <c r="O22" s="83"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="72"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="4"/>
     </row>
     <row r="23" spans="2:21">
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="61"/>
+      <c r="D23" s="82"/>
       <c r="L23" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="M23" s="67" t="s">
+      <c r="M23" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="N23" s="67"/>
-      <c r="O23" s="68"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="70"/>
       <c r="Q23" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="R23" s="67" t="s">
+      <c r="R23" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="S23" s="67"/>
-      <c r="T23" s="68"/>
+      <c r="S23" s="69"/>
+      <c r="T23" s="70"/>
     </row>
     <row r="24" spans="2:21">
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="62"/>
+      <c r="D24" s="83"/>
       <c r="L24" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="67" t="s">
+      <c r="M24" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="N24" s="67"/>
-      <c r="O24" s="68"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="70"/>
       <c r="Q24" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="R24" s="67" t="s">
+      <c r="R24" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="S24" s="67"/>
-      <c r="T24" s="68"/>
+      <c r="S24" s="69"/>
+      <c r="T24" s="70"/>
     </row>
     <row r="25" spans="2:21">
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="63"/>
+      <c r="D25" s="84"/>
       <c r="L25" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="M25" s="67" t="s">
+      <c r="M25" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="N25" s="67"/>
-      <c r="O25" s="68"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="70"/>
       <c r="Q25" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="R25" s="67" t="s">
+      <c r="R25" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="S25" s="67"/>
-      <c r="T25" s="68"/>
+      <c r="S25" s="69"/>
+      <c r="T25" s="70"/>
     </row>
     <row r="26" spans="2:21">
       <c r="L26" s="22" t="s">
@@ -2075,10 +2075,10 @@
       <c r="M26" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="N26" s="67" t="s">
+      <c r="N26" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="O26" s="68"/>
+      <c r="O26" s="70"/>
       <c r="Q26" s="23"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
@@ -2089,34 +2089,34 @@
       <c r="M27" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="N27" s="67" t="s">
+      <c r="N27" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="O27" s="68"/>
+      <c r="O27" s="70"/>
       <c r="Q27" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="64"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="85"/>
     </row>
     <row r="28" spans="2:21">
       <c r="L28" s="3"/>
       <c r="M28" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="N28" s="67" t="s">
+      <c r="N28" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="O28" s="68"/>
+      <c r="O28" s="70"/>
       <c r="Q28" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="R28" s="65" t="s">
+      <c r="R28" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="S28" s="65"/>
-      <c r="T28" s="66"/>
+      <c r="S28" s="86"/>
+      <c r="T28" s="87"/>
     </row>
     <row r="29" spans="2:21">
       <c r="L29" s="3"/>
@@ -2148,11 +2148,34 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M22:O22"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
@@ -2169,34 +2192,11 @@
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="D8:H8"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
